--- a/dam/backend/datablau-datastandard-server/src/main/resources/resources/domain/domain_template.xlsx
+++ b/dam/backend/datablau-datastandard-server/src/main/resources/resources/domain/domain_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18400" windowHeight="8870" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="标准数据元模板" sheetId="1" r:id="rId1"/>
@@ -2196,8 +2196,8 @@
   <sheetPr/>
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -2501,7 +2501,7 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
